--- a/data/exampleStochastic/Power_VRES.xlsx
+++ b/data/exampleStochastic/Power_VRES.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD2B37-F922-4BEB-B7C6-19661B5DEE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D838D3E-917E-4614-A2D2-2097BAA37A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
     <sheet name="ScenarioB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1884,7 +1897,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="13">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G8" s="14">
         <v>100</v>
@@ -1942,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="14">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
@@ -1992,7 +2005,7 @@
         <v>78</v>
       </c>
       <c r="F10" s="13">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G10" s="14">
         <v>100</v>
@@ -2045,10 +2058,10 @@
         <v>80</v>
       </c>
       <c r="F11" s="13">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G11" s="14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>

--- a/data/exampleStochastic/Power_VRES.xlsx
+++ b/data/exampleStochastic/Power_VRES.xlsx
@@ -598,13 +598,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -1492,20 +1492,89 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>RoR1</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>RoR</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Node_1</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M12" s="14" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="N12" s="14" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="O12" s="14" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v/>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v/>
+      </c>
+      <c r="R12" s="17" t="n">
+        <v/>
+      </c>
+      <c r="S12" s="17" t="n">
+        <v/>
+      </c>
+      <c r="T12" s="18" t="n">
+        <v/>
+      </c>
+      <c r="U12" s="18" t="n">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -2122,13 +2191,13 @@
         </is>
       </c>
       <c r="F8" s="13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14" t="n">
         <v>100</v>
       </c>
       <c r="H8" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>290</v>
@@ -2195,13 +2264,13 @@
         </is>
       </c>
       <c r="F9" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="13" t="n">
         <v>0</v>
-      </c>
-      <c r="G9" s="14" t="n">
-        <v>70</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <v>1</v>
       </c>
       <c r="I9" s="13" t="n">
         <v>290</v>
@@ -2268,7 +2337,7 @@
         </is>
       </c>
       <c r="F10" s="13" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G10" s="14" t="n">
         <v>100</v>
@@ -2341,10 +2410,10 @@
         </is>
       </c>
       <c r="F11" s="13" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G11" s="14" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11" s="13" t="n">
         <v>0</v>
@@ -2391,10 +2460,79 @@
         <is>
           <t>TestSource1</t>
         </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>RoR1</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>RoR</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Node_1</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M12" s="14" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="N12" s="14" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="O12" s="14" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v/>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v/>
+      </c>
+      <c r="R12" s="17" t="n">
+        <v/>
+      </c>
+      <c r="S12" s="17" t="n">
+        <v/>
+      </c>
+      <c r="T12" s="18" t="n">
+        <v/>
+      </c>
+      <c r="U12" s="18" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/exampleStochastic/Power_VRES.xlsx
+++ b/data/exampleStochastic/Power_VRES.xlsx
@@ -638,7 +638,7 @@
     <col width="24.5709375" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
     <col width="24.5709375" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/exampleStochastic/Power_VRES.xlsx
+++ b/data/exampleStochastic/Power_VRES.xlsx
@@ -42,13 +42,13 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -65,38 +65,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -615,7 +615,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -630,12 +630,12 @@
     <col width="15.7109375" customWidth="1" min="13" max="13"/>
     <col width="15.7109375" customWidth="1" min="14" max="14"/>
     <col width="15.7109375" customWidth="1" min="15" max="15"/>
-    <col width="20.2109375" customWidth="1" min="16" max="16"/>
-    <col width="20.2109375" customWidth="1" min="17" max="17"/>
+    <col width="20.140625" customWidth="1" min="16" max="16"/>
+    <col width="20.140625" customWidth="1" min="17" max="17"/>
     <col width="15.7109375" customWidth="1" min="18" max="18"/>
     <col width="15.7109375" customWidth="1" min="19" max="19"/>
-    <col width="24.5709375" customWidth="1" min="20" max="20"/>
-    <col width="24.5709375" customWidth="1" min="21" max="21"/>
+    <col width="24.5703125" customWidth="1" min="20" max="20"/>
+    <col width="24.5703125" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -1563,12 +1563,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1585,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -1600,12 +1600,12 @@
     <col width="15.7109375" customWidth="1" min="13" max="13"/>
     <col width="15.7109375" customWidth="1" min="14" max="14"/>
     <col width="15.7109375" customWidth="1" min="15" max="15"/>
-    <col width="20.2109375" customWidth="1" min="16" max="16"/>
-    <col width="20.2109375" customWidth="1" min="17" max="17"/>
+    <col width="20.140625" customWidth="1" min="16" max="16"/>
+    <col width="20.140625" customWidth="1" min="17" max="17"/>
     <col width="15.7109375" customWidth="1" min="18" max="18"/>
     <col width="15.7109375" customWidth="1" min="19" max="19"/>
-    <col width="24.5709375" customWidth="1" min="20" max="20"/>
-    <col width="24.5709375" customWidth="1" min="21" max="21"/>
+    <col width="24.5703125" customWidth="1" min="20" max="20"/>
+    <col width="24.5703125" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -2533,6 +2533,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>